--- a/Veenkampen/misc/BADM-Soil_template/VK-BADM-Soil-v2021.xlsx
+++ b/Veenkampen/misc/BADM-Soil_template/VK-BADM-Soil-v2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\Veenkampen_archive\FLUXNET\Veenkampen\misc\BADM-Soil_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44D5EDA-FAC0-3246-A2AF-886A30D36637}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2990FF-3AFB-4377-957B-90E45287259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="460" windowWidth="31960" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Soil" sheetId="1" r:id="rId1"/>
@@ -2130,12 +2130,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>65</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>68</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>70</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>74</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>79</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>81</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>83</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>88</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>92</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>96</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>98</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>100</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>103</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>105</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>107</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>109</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>112</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>115</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>117</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>119</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>121</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>129</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>132</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>134</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>136</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>147</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>150</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>154</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>156</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>159</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>161</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>163</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>165</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>168</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>170</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>172</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>174</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>177</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>179</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>181</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>183</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>185</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>187</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>189</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>191</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>193</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>195</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>197</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>199</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>202</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>204</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>206</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>208</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>210</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>212</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>214</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>216</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>218</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>220</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>222</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>224</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>226</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>228</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>230</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>232</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>235</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>237</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>239</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>241</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>243</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>245</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>247</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>249</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>251</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>253</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>255</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>257</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>259</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>261</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>263</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>265</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>267</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>269</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>271</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>273</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>275</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>277</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>279</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>281</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>284</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>286</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>288</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>290</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>292</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>294</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>296</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>298</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>301</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>303</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>305</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>307</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>309</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>312</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>314</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>316</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>318</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>320</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>322</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>324</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>326</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>328</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>330</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>332</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>334</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>336</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>338</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>340</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>342</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>344</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>346</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>348</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>350</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>352</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>354</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>356</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>359</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>361</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>363</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>366</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>368</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>370</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>372</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>375</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>377</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>379</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>381</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>383</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>385</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>387</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>389</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>391</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>393</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>395</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>397</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>399</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>401</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>403</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>405</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>407</v>
       </c>
@@ -4206,12 +4206,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>409</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>412</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>412</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>412</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>419</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>419</v>
       </c>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>419</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>423</v>
       </c>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>423</v>
       </c>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>423</v>
       </c>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>423</v>
       </c>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>423</v>
       </c>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>423</v>
       </c>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>423</v>
       </c>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>423</v>
       </c>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>423</v>
       </c>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>423</v>
       </c>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>423</v>
       </c>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>423</v>
       </c>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>423</v>
       </c>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>423</v>
       </c>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>423</v>
       </c>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>423</v>
       </c>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>423</v>
       </c>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>423</v>
       </c>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>423</v>
       </c>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>423</v>
       </c>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>423</v>
       </c>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>423</v>
       </c>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>423</v>
       </c>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>423</v>
       </c>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>423</v>
       </c>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>423</v>
       </c>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>423</v>
       </c>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>423</v>
       </c>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>423</v>
       </c>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>423</v>
       </c>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>423</v>
       </c>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>363</v>
       </c>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>363</v>
       </c>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>363</v>
       </c>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>363</v>
       </c>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>363</v>
       </c>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>363</v>
       </c>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>363</v>
       </c>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>363</v>
       </c>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>363</v>
       </c>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>363</v>
       </c>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>363</v>
       </c>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>363</v>
       </c>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>467</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>467</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>467</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>467</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>467</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>467</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>467</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>467</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>467</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>467</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>467</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>467</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>467</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>467</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>467</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="160" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>498</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="176" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>498</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>498</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>505</v>
       </c>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>505</v>
       </c>
@@ -4898,16 +4898,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="A8:G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="40" customWidth="1"/>
     <col min="3" max="5" width="11" customWidth="1"/>
     <col min="6" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>508</v>
       </c>
@@ -4930,7 +4932,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>513</v>
       </c>
@@ -4951,7 +4953,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>513</v>
       </c>
@@ -4972,7 +4974,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>513</v>
       </c>
@@ -4993,7 +4995,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>513</v>
       </c>
@@ -5014,7 +5016,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>513</v>
       </c>
@@ -5035,7 +5037,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>521</v>
       </c>
@@ -5054,7 +5056,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>521</v>
       </c>
@@ -5075,7 +5077,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>521</v>
       </c>
@@ -5094,7 +5096,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>521</v>
       </c>
@@ -5113,7 +5115,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>521</v>
       </c>
@@ -5132,7 +5134,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>521</v>
       </c>
@@ -5153,7 +5155,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>521</v>
       </c>
@@ -5172,7 +5174,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>521</v>
       </c>
@@ -5191,7 +5193,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>521</v>
       </c>
@@ -5210,7 +5212,7 @@
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>521</v>
       </c>
@@ -5231,7 +5233,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>521</v>
       </c>
@@ -5250,7 +5252,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>521</v>
       </c>
@@ -5269,7 +5271,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>521</v>
       </c>
@@ -5288,7 +5290,7 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>521</v>
       </c>
@@ -5309,7 +5311,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>521</v>
       </c>
@@ -5328,7 +5330,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>521</v>
       </c>
@@ -5347,7 +5349,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>521</v>
       </c>
@@ -5366,7 +5368,7 @@
       </c>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>521</v>
       </c>
@@ -5387,7 +5389,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>521</v>
       </c>
@@ -5406,7 +5408,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>521</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>521</v>
       </c>
@@ -5444,7 +5446,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>521</v>
       </c>
@@ -5465,7 +5467,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>521</v>
       </c>
@@ -5484,7 +5486,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>521</v>
       </c>
@@ -5503,7 +5505,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>521</v>
       </c>
@@ -5524,7 +5526,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>521</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>521</v>
       </c>
@@ -5564,7 +5566,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>521</v>
       </c>
@@ -5583,7 +5585,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>521</v>
       </c>
@@ -5604,7 +5606,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>521</v>
       </c>
@@ -5625,7 +5627,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>521</v>
       </c>
@@ -5644,7 +5646,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>521</v>
       </c>
@@ -5663,7 +5665,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>521</v>
       </c>
@@ -5684,7 +5686,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>521</v>
       </c>
@@ -5705,7 +5707,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>521</v>
       </c>
@@ -5724,7 +5726,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>521</v>
       </c>
@@ -5743,7 +5745,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>521</v>
       </c>
@@ -5762,7 +5764,7 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>521</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>521</v>
       </c>
@@ -5802,7 +5804,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>521</v>
       </c>
@@ -5821,7 +5823,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>521</v>
       </c>
@@ -5840,7 +5842,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>521</v>
       </c>
@@ -5859,7 +5861,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>521</v>
       </c>
@@ -5878,7 +5880,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>521</v>
       </c>
@@ -5897,7 +5899,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>521</v>
       </c>
@@ -5916,7 +5918,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>521</v>
       </c>
@@ -5937,7 +5939,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>521</v>
       </c>
@@ -5954,7 +5956,7 @@
       </c>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>521</v>
       </c>
@@ -5971,7 +5973,7 @@
       </c>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>535</v>
       </c>
@@ -5990,7 +5992,7 @@
       </c>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>535</v>
       </c>
@@ -6011,7 +6013,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>535</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>535</v>
       </c>
@@ -6049,7 +6051,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>535</v>
       </c>
@@ -6068,7 +6070,7 @@
       </c>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>535</v>
       </c>
@@ -6089,7 +6091,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>535</v>
       </c>
@@ -6108,7 +6110,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>535</v>
       </c>
@@ -6127,7 +6129,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>535</v>
       </c>
@@ -6146,7 +6148,7 @@
       </c>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>535</v>
       </c>
@@ -6167,7 +6169,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>535</v>
       </c>
@@ -6186,7 +6188,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>535</v>
       </c>
@@ -6205,7 +6207,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>535</v>
       </c>
@@ -6224,7 +6226,7 @@
       </c>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>535</v>
       </c>
@@ -6245,7 +6247,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>535</v>
       </c>
@@ -6264,7 +6266,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>535</v>
       </c>
@@ -6283,7 +6285,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>535</v>
       </c>
@@ -6302,7 +6304,7 @@
       </c>
       <c r="G71" s="11"/>
     </row>
-    <row r="72" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>535</v>
       </c>
@@ -6323,7 +6325,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>535</v>
       </c>
@@ -6342,7 +6344,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>535</v>
       </c>
@@ -6361,7 +6363,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>535</v>
       </c>
@@ -6380,7 +6382,7 @@
       </c>
       <c r="G75" s="11"/>
     </row>
-    <row r="76" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>535</v>
       </c>
@@ -6401,7 +6403,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>535</v>
       </c>
@@ -6420,7 +6422,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>535</v>
       </c>
@@ -6439,7 +6441,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>535</v>
       </c>
@@ -6458,7 +6460,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>535</v>
       </c>
@@ -6477,7 +6479,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>535</v>
       </c>
@@ -6496,7 +6498,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>535</v>
       </c>
@@ -6515,7 +6517,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>535</v>
       </c>
@@ -6532,7 +6534,7 @@
       </c>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>535</v>
       </c>
@@ -6553,7 +6555,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>535</v>
       </c>
@@ -6570,7 +6572,7 @@
       </c>
       <c r="G85" s="11"/>
     </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>535</v>
       </c>
@@ -6587,7 +6589,7 @@
       </c>
       <c r="G86" s="11"/>
     </row>
-    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>536</v>
       </c>
@@ -6606,7 +6608,7 @@
       </c>
       <c r="G87" s="11"/>
     </row>
-    <row r="88" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>536</v>
       </c>
@@ -6627,7 +6629,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>536</v>
       </c>
@@ -6646,7 +6648,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>536</v>
       </c>
@@ -6665,7 +6667,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>536</v>
       </c>
@@ -6684,7 +6686,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>536</v>
       </c>
@@ -6705,7 +6707,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>536</v>
       </c>
@@ -6724,7 +6726,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>536</v>
       </c>
@@ -6743,7 +6745,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>536</v>
       </c>
@@ -6762,7 +6764,7 @@
       </c>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>536</v>
       </c>
@@ -6783,7 +6785,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>536</v>
       </c>
@@ -6802,7 +6804,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>536</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>536</v>
       </c>
@@ -6840,7 +6842,7 @@
       </c>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>536</v>
       </c>
@@ -6861,7 +6863,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>536</v>
       </c>
@@ -6880,7 +6882,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>536</v>
       </c>
@@ -6899,7 +6901,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>536</v>
       </c>
@@ -6920,7 +6922,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>536</v>
       </c>
@@ -6941,7 +6943,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>536</v>
       </c>
@@ -6960,7 +6962,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>536</v>
       </c>
@@ -6979,7 +6981,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>536</v>
       </c>
@@ -7000,7 +7002,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>536</v>
       </c>
@@ -7021,7 +7023,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>536</v>
       </c>
@@ -7040,7 +7042,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>536</v>
       </c>
@@ -7059,7 +7061,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>536</v>
       </c>
@@ -7080,7 +7082,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>536</v>
       </c>
@@ -7101,7 +7103,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>536</v>
       </c>
@@ -7120,7 +7122,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>536</v>
       </c>
@@ -7139,7 +7141,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>536</v>
       </c>
@@ -7160,7 +7162,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>536</v>
       </c>
@@ -7181,7 +7183,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>536</v>
       </c>
@@ -7200,7 +7202,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>536</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>536</v>
       </c>
@@ -7238,7 +7240,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>536</v>
       </c>
@@ -7257,7 +7259,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>536</v>
       </c>
@@ -7276,7 +7278,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>536</v>
       </c>
@@ -7295,7 +7297,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>536</v>
       </c>
@@ -7312,7 +7314,7 @@
       </c>
       <c r="G123" s="11"/>
     </row>
-    <row r="124" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>536</v>
       </c>
@@ -7333,7 +7335,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>536</v>
       </c>
@@ -7350,7 +7352,7 @@
       </c>
       <c r="G125" s="11"/>
     </row>
-    <row r="126" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>536</v>
       </c>
@@ -7367,7 +7369,7 @@
       </c>
       <c r="G126" s="11"/>
     </row>
-    <row r="127" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>541</v>
       </c>
@@ -7388,7 +7390,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>541</v>
       </c>
@@ -7409,7 +7411,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>541</v>
       </c>
@@ -7428,7 +7430,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>541</v>
       </c>
@@ -7447,7 +7449,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>541</v>
       </c>
@@ -7468,7 +7470,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>541</v>
       </c>
@@ -7489,7 +7491,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>541</v>
       </c>
@@ -7508,7 +7510,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>541</v>
       </c>
@@ -7527,7 +7529,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>541</v>
       </c>
@@ -7548,7 +7550,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>541</v>
       </c>
@@ -7567,7 +7569,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>541</v>
       </c>
@@ -7588,7 +7590,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>541</v>
       </c>
@@ -7605,7 +7607,7 @@
       </c>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>541</v>
       </c>
@@ -7622,7 +7624,7 @@
       </c>
       <c r="G139" s="11"/>
     </row>
-    <row r="140" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>546</v>
       </c>
@@ -7643,7 +7645,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>546</v>
       </c>
@@ -7664,7 +7666,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>546</v>
       </c>
@@ -7683,7 +7685,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>546</v>
       </c>
@@ -7702,7 +7704,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>546</v>
       </c>
@@ -7719,7 +7721,7 @@
       </c>
       <c r="G144" s="11"/>
     </row>
-    <row r="145" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>546</v>
       </c>
@@ -7740,7 +7742,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>546</v>
       </c>
@@ -7757,7 +7759,7 @@
       </c>
       <c r="G146" s="11"/>
     </row>
-    <row r="147" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>546</v>
       </c>
@@ -7774,7 +7776,7 @@
       </c>
       <c r="G147" s="11"/>
     </row>
-    <row r="148" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>548</v>
       </c>
@@ -7795,7 +7797,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>548</v>
       </c>
@@ -7816,7 +7818,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>548</v>
       </c>
@@ -7835,7 +7837,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>548</v>
       </c>
@@ -7854,7 +7856,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>548</v>
       </c>
@@ -7875,7 +7877,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>548</v>
       </c>
@@ -7894,7 +7896,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>548</v>
       </c>
@@ -7913,7 +7915,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>548</v>
       </c>
@@ -7932,7 +7934,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>548</v>
       </c>
@@ -7951,7 +7953,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>548</v>
       </c>
@@ -7968,7 +7970,7 @@
       </c>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>548</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>548</v>
       </c>
@@ -8010,7 +8012,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>548</v>
       </c>
@@ -8029,7 +8031,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>548</v>
       </c>
@@ -8046,7 +8048,7 @@
       </c>
       <c r="G161" s="11"/>
     </row>
-    <row r="162" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>548</v>
       </c>
@@ -8063,7 +8065,7 @@
       </c>
       <c r="G162" s="11"/>
     </row>
-    <row r="163" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>552</v>
       </c>
@@ -8084,7 +8086,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>552</v>
       </c>
@@ -8101,7 +8103,7 @@
       </c>
       <c r="G164" s="11"/>
     </row>
-    <row r="165" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>552</v>
       </c>
@@ -8118,7 +8120,7 @@
       </c>
       <c r="G165" s="11"/>
     </row>
-    <row r="166" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>554</v>
       </c>
@@ -8139,7 +8141,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>554</v>
       </c>
@@ -8156,7 +8158,7 @@
       </c>
       <c r="G167" s="11"/>
     </row>
-    <row r="168" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>554</v>
       </c>
@@ -8173,7 +8175,7 @@
       </c>
       <c r="G168" s="11"/>
     </row>
-    <row r="169" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>556</v>
       </c>
@@ -8194,7 +8196,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>556</v>
       </c>
@@ -8213,7 +8215,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>556</v>
       </c>
@@ -8230,7 +8232,7 @@
       </c>
       <c r="G171" s="11"/>
     </row>
-    <row r="172" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>556</v>
       </c>
@@ -8247,7 +8249,7 @@
       </c>
       <c r="G172" s="11"/>
     </row>
-    <row r="173" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>559</v>
       </c>
@@ -8268,7 +8270,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>559</v>
       </c>
@@ -8285,7 +8287,7 @@
       </c>
       <c r="G174" s="11"/>
     </row>
-    <row r="175" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>559</v>
       </c>
@@ -8302,7 +8304,7 @@
       </c>
       <c r="G175" s="11"/>
     </row>
-    <row r="176" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>561</v>
       </c>
@@ -8323,7 +8325,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>561</v>
       </c>
@@ -8344,7 +8346,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>561</v>
       </c>
@@ -8363,7 +8365,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>561</v>
       </c>
@@ -8382,7 +8384,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>561</v>
       </c>
@@ -8403,7 +8405,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>561</v>
       </c>
@@ -8424,7 +8426,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>561</v>
       </c>
@@ -8443,7 +8445,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>561</v>
       </c>
@@ -8462,7 +8464,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>561</v>
       </c>
@@ -8479,7 +8481,7 @@
       </c>
       <c r="G184" s="11"/>
     </row>
-    <row r="185" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>561</v>
       </c>
@@ -8500,7 +8502,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>561</v>
       </c>
@@ -8517,7 +8519,7 @@
       </c>
       <c r="G186" s="11"/>
     </row>
-    <row r="187" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>561</v>
       </c>
